--- a/po_analysis_by_asin/B0BXMT1Q69_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMT1Q69_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,47 +452,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -500,31 +500,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -532,79 +532,79 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45453</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45467</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45474</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45495</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45509</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45537</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45544</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45551</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45558</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -612,41 +612,273 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45565</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45572</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45579</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45586</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45600</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B55" t="n">
         <v>18</v>
       </c>
     </row>
@@ -661,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,73 +915,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45597</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>18</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BXMT1Q69_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMT1Q69_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,20 +751,20 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>8</v>
@@ -772,23 +772,23 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>4</v>
@@ -796,23 +796,23 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>4</v>
@@ -820,15 +820,15 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>2</v>
@@ -836,49 +836,41 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45606.99999999999</v>
-      </c>
-      <c r="B55" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1014,7 +1006,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">

--- a/po_analysis_by_asin/B0BXMT1Q69_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMT1Q69_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -901,7 +902,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1056,901 @@
       </c>
       <c r="B20" t="n">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.198707557767376</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.95599162875396</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.316796901213228</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.05982781159582</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.90408352056706</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.88750300530262</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.319017722314295</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.93929630430099</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.488370401319052</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.4385989284518</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.866169076568601</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.83188848734275</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.083005480210313</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.77648527635568</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.941752835644891</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.11441037005392</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.70356789441796</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.85425569190644</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.070678626461689</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.08939399867687</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.235544319435909</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.47873315039377</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.156580867570858</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16.08201214190159</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.032750924610213</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15.89345930669856</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.575172043725771</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16.4949892547714</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.363755570495368</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16.53319825635184</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.914514585588557</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16.58163460968835</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.593810896480707</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16.40603127610296</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.75774843108849</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16.78290486499952</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.039952951782832</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17.14176642056405</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.463393512652801</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16.27373884928173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.500407102447341</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.56888816474871</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.043070663926212</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16.54827323224994</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.3351607790343997</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17.33189454863059</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.8677246484884831</v>
+      </c>
+      <c r="D25" t="n">
+        <v>17.46879196210667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.052413274107335</v>
+      </c>
+      <c r="D26" t="n">
+        <v>16.8949993939701</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.7675339674339375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>17.41421235029283</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.3315376172530036</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.82178633895337</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.399725643066613</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17.63142907084159</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.7734250365210734</v>
+      </c>
+      <c r="D30" t="n">
+        <v>16.70297143883357</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1045012585765759</v>
+      </c>
+      <c r="D31" t="n">
+        <v>17.79261233125149</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.7882826401541692</v>
+      </c>
+      <c r="D32" t="n">
+        <v>18.06302082567518</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.1589789160041149</v>
+      </c>
+      <c r="D33" t="n">
+        <v>18.39929267162538</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.4676477982960508</v>
+      </c>
+      <c r="D34" t="n">
+        <v>17.34508025880785</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.2831869615061288</v>
+      </c>
+      <c r="D35" t="n">
+        <v>18.20669462413562</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01960400167133091</v>
+      </c>
+      <c r="D36" t="n">
+        <v>17.98451839130605</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.002554329700039753</v>
+      </c>
+      <c r="D37" t="n">
+        <v>17.42700657003207</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.484317875566342</v>
+      </c>
+      <c r="D38" t="n">
+        <v>18.02079564800975</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3282007543490409</v>
+      </c>
+      <c r="D39" t="n">
+        <v>18.04089071444495</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.114132855367099</v>
+      </c>
+      <c r="D40" t="n">
+        <v>18.68303902536004</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5342488418470964</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18.40988268680006</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.337811874572967</v>
+      </c>
+      <c r="D42" t="n">
+        <v>18.25649943619793</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8959793426694471</v>
+      </c>
+      <c r="D43" t="n">
+        <v>18.51822180603415</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.313305306721399</v>
+      </c>
+      <c r="D44" t="n">
+        <v>18.84840726483647</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5992115514455423</v>
+      </c>
+      <c r="D45" t="n">
+        <v>18.04524264685327</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.6688765542614952</v>
+      </c>
+      <c r="D46" t="n">
+        <v>19.38125628576071</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.110472170281729</v>
+      </c>
+      <c r="D47" t="n">
+        <v>19.20139828681635</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.999807200383757</v>
+      </c>
+      <c r="D48" t="n">
+        <v>19.69859040462827</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.29819934550588</v>
+      </c>
+      <c r="D49" t="n">
+        <v>19.7136853716622</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.682256409937092</v>
+      </c>
+      <c r="D50" t="n">
+        <v>19.74225901067347</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.241695490545222</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20.31851730538663</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>11</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.139756342911898</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20.07180501637379</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>11</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.243882745876185</v>
+      </c>
+      <c r="D53" t="n">
+        <v>19.28125058482449</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.285954976470862</v>
+      </c>
+      <c r="D54" t="n">
+        <v>19.63985904607358</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.055678095837736</v>
+      </c>
+      <c r="D55" t="n">
+        <v>20.01421859756109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>11</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.510440140195995</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20.04393115086272</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>11</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.938981179841789</v>
+      </c>
+      <c r="D57" t="n">
+        <v>19.89096720404497</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.527560595674953</v>
+      </c>
+      <c r="D58" t="n">
+        <v>19.10676711527387</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>11</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.063795460349306</v>
+      </c>
+      <c r="D59" t="n">
+        <v>19.64323308413168</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>11</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.217541256671195</v>
+      </c>
+      <c r="D60" t="n">
+        <v>19.75898220530893</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>11</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.871406018627869</v>
+      </c>
+      <c r="D61" t="n">
+        <v>20.32803335230662</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>11</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.415372423206864</v>
+      </c>
+      <c r="D62" t="n">
+        <v>19.56508437592143</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BXMT1Q69_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMT1Q69_po_data.xlsx
@@ -1069,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,16 +1088,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1106,12 +1096,6 @@
       <c r="B2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>-2.198707557767376</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.95599162875396</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1120,12 +1104,6 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>-2.316796901213228</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.05982781159582</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1134,12 +1112,6 @@
       <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>-2.90408352056706</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.88750300530262</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1148,12 +1120,6 @@
       <c r="B5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>-2.319017722314295</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.93929630430099</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1162,12 +1128,6 @@
       <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
-        <v>-2.488370401319052</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.4385989284518</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1176,12 +1136,6 @@
       <c r="B7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1.866169076568601</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15.83188848734275</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1190,12 +1144,6 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
-        <v>-2.083005480210313</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15.77648527635568</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1204,12 +1152,6 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
-        <v>-1.941752835644891</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16.11441037005392</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1218,12 +1160,6 @@
       <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
-        <v>-1.70356789441796</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15.85425569190644</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1232,12 +1168,6 @@
       <c r="B11" t="n">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
-        <v>-2.070678626461689</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.08939399867687</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1246,12 +1176,6 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" t="n">
-        <v>-1.235544319435909</v>
-      </c>
-      <c r="D12" t="n">
-        <v>16.47873315039377</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1260,12 +1184,6 @@
       <c r="B13" t="n">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1.156580867570858</v>
-      </c>
-      <c r="D13" t="n">
-        <v>16.08201214190159</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1274,12 +1192,6 @@
       <c r="B14" t="n">
         <v>7</v>
       </c>
-      <c r="C14" t="n">
-        <v>-2.032750924610213</v>
-      </c>
-      <c r="D14" t="n">
-        <v>15.89345930669856</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1288,12 +1200,6 @@
       <c r="B15" t="n">
         <v>7</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.575172043725771</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16.4949892547714</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1302,12 +1208,6 @@
       <c r="B16" t="n">
         <v>8</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.363755570495368</v>
-      </c>
-      <c r="D16" t="n">
-        <v>16.53319825635184</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1316,12 +1216,6 @@
       <c r="B17" t="n">
         <v>8</v>
       </c>
-      <c r="C17" t="n">
-        <v>-1.914514585588557</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16.58163460968835</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1330,12 +1224,6 @@
       <c r="B18" t="n">
         <v>8</v>
       </c>
-      <c r="C18" t="n">
-        <v>-1.593810896480707</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16.40603127610296</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1344,12 +1232,6 @@
       <c r="B19" t="n">
         <v>8</v>
       </c>
-      <c r="C19" t="n">
-        <v>-1.75774843108849</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16.78290486499952</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1358,12 +1240,6 @@
       <c r="B20" t="n">
         <v>8</v>
       </c>
-      <c r="C20" t="n">
-        <v>-1.039952951782832</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17.14176642056405</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1372,12 +1248,6 @@
       <c r="B21" t="n">
         <v>8</v>
       </c>
-      <c r="C21" t="n">
-        <v>-1.463393512652801</v>
-      </c>
-      <c r="D21" t="n">
-        <v>16.27373884928173</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1386,12 +1256,6 @@
       <c r="B22" t="n">
         <v>8</v>
       </c>
-      <c r="C22" t="n">
-        <v>-1.500407102447341</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17.56888816474871</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1400,12 +1264,6 @@
       <c r="B23" t="n">
         <v>8</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1.043070663926212</v>
-      </c>
-      <c r="D23" t="n">
-        <v>16.54827323224994</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1414,12 +1272,6 @@
       <c r="B24" t="n">
         <v>8</v>
       </c>
-      <c r="C24" t="n">
-        <v>-0.3351607790343997</v>
-      </c>
-      <c r="D24" t="n">
-        <v>17.33189454863059</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1428,12 +1280,6 @@
       <c r="B25" t="n">
         <v>8</v>
       </c>
-      <c r="C25" t="n">
-        <v>-0.8677246484884831</v>
-      </c>
-      <c r="D25" t="n">
-        <v>17.46879196210667</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1442,12 +1288,6 @@
       <c r="B26" t="n">
         <v>8</v>
       </c>
-      <c r="C26" t="n">
-        <v>-1.052413274107335</v>
-      </c>
-      <c r="D26" t="n">
-        <v>16.8949993939701</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1456,12 +1296,6 @@
       <c r="B27" t="n">
         <v>8</v>
       </c>
-      <c r="C27" t="n">
-        <v>-0.7675339674339375</v>
-      </c>
-      <c r="D27" t="n">
-        <v>17.41421235029283</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1470,12 +1304,6 @@
       <c r="B28" t="n">
         <v>8</v>
       </c>
-      <c r="C28" t="n">
-        <v>-0.3315376172530036</v>
-      </c>
-      <c r="D28" t="n">
-        <v>17.82178633895337</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1484,12 +1312,6 @@
       <c r="B29" t="n">
         <v>8</v>
       </c>
-      <c r="C29" t="n">
-        <v>-0.399725643066613</v>
-      </c>
-      <c r="D29" t="n">
-        <v>17.63142907084159</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1498,12 +1320,6 @@
       <c r="B30" t="n">
         <v>8</v>
       </c>
-      <c r="C30" t="n">
-        <v>-0.7734250365210734</v>
-      </c>
-      <c r="D30" t="n">
-        <v>16.70297143883357</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1512,12 +1328,6 @@
       <c r="B31" t="n">
         <v>8</v>
       </c>
-      <c r="C31" t="n">
-        <v>-0.1045012585765759</v>
-      </c>
-      <c r="D31" t="n">
-        <v>17.79261233125149</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1526,12 +1336,6 @@
       <c r="B32" t="n">
         <v>9</v>
       </c>
-      <c r="C32" t="n">
-        <v>-0.7882826401541692</v>
-      </c>
-      <c r="D32" t="n">
-        <v>18.06302082567518</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1540,12 +1344,6 @@
       <c r="B33" t="n">
         <v>9</v>
       </c>
-      <c r="C33" t="n">
-        <v>-0.1589789160041149</v>
-      </c>
-      <c r="D33" t="n">
-        <v>18.39929267162538</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1554,12 +1352,6 @@
       <c r="B34" t="n">
         <v>9</v>
       </c>
-      <c r="C34" t="n">
-        <v>-0.4676477982960508</v>
-      </c>
-      <c r="D34" t="n">
-        <v>17.34508025880785</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1568,12 +1360,6 @@
       <c r="B35" t="n">
         <v>9</v>
       </c>
-      <c r="C35" t="n">
-        <v>-0.2831869615061288</v>
-      </c>
-      <c r="D35" t="n">
-        <v>18.20669462413562</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1582,12 +1368,6 @@
       <c r="B36" t="n">
         <v>9</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.01960400167133091</v>
-      </c>
-      <c r="D36" t="n">
-        <v>17.98451839130605</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1596,12 +1376,6 @@
       <c r="B37" t="n">
         <v>9</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.002554329700039753</v>
-      </c>
-      <c r="D37" t="n">
-        <v>17.42700657003207</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1610,12 +1384,6 @@
       <c r="B38" t="n">
         <v>9</v>
       </c>
-      <c r="C38" t="n">
-        <v>-0.484317875566342</v>
-      </c>
-      <c r="D38" t="n">
-        <v>18.02079564800975</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1624,12 +1392,6 @@
       <c r="B39" t="n">
         <v>9</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.3282007543490409</v>
-      </c>
-      <c r="D39" t="n">
-        <v>18.04089071444495</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1638,12 +1400,6 @@
       <c r="B40" t="n">
         <v>10</v>
       </c>
-      <c r="C40" t="n">
-        <v>1.114132855367099</v>
-      </c>
-      <c r="D40" t="n">
-        <v>18.68303902536004</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1652,12 +1408,6 @@
       <c r="B41" t="n">
         <v>10</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.5342488418470964</v>
-      </c>
-      <c r="D41" t="n">
-        <v>18.40988268680006</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1666,12 +1416,6 @@
       <c r="B42" t="n">
         <v>10</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.337811874572967</v>
-      </c>
-      <c r="D42" t="n">
-        <v>18.25649943619793</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1680,12 +1424,6 @@
       <c r="B43" t="n">
         <v>10</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.8959793426694471</v>
-      </c>
-      <c r="D43" t="n">
-        <v>18.51822180603415</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1694,12 +1432,6 @@
       <c r="B44" t="n">
         <v>10</v>
       </c>
-      <c r="C44" t="n">
-        <v>1.313305306721399</v>
-      </c>
-      <c r="D44" t="n">
-        <v>18.84840726483647</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1708,12 +1440,6 @@
       <c r="B45" t="n">
         <v>10</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.5992115514455423</v>
-      </c>
-      <c r="D45" t="n">
-        <v>18.04524264685327</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1722,12 +1448,6 @@
       <c r="B46" t="n">
         <v>10</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.6688765542614952</v>
-      </c>
-      <c r="D46" t="n">
-        <v>19.38125628576071</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1736,12 +1456,6 @@
       <c r="B47" t="n">
         <v>10</v>
       </c>
-      <c r="C47" t="n">
-        <v>1.110472170281729</v>
-      </c>
-      <c r="D47" t="n">
-        <v>19.20139828681635</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1750,12 +1464,6 @@
       <c r="B48" t="n">
         <v>10</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.999807200383757</v>
-      </c>
-      <c r="D48" t="n">
-        <v>19.69859040462827</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1764,12 +1472,6 @@
       <c r="B49" t="n">
         <v>10</v>
       </c>
-      <c r="C49" t="n">
-        <v>1.29819934550588</v>
-      </c>
-      <c r="D49" t="n">
-        <v>19.7136853716622</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1778,12 +1480,6 @@
       <c r="B50" t="n">
         <v>10</v>
       </c>
-      <c r="C50" t="n">
-        <v>1.682256409937092</v>
-      </c>
-      <c r="D50" t="n">
-        <v>19.74225901067347</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1792,12 +1488,6 @@
       <c r="B51" t="n">
         <v>10</v>
       </c>
-      <c r="C51" t="n">
-        <v>1.241695490545222</v>
-      </c>
-      <c r="D51" t="n">
-        <v>20.31851730538663</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1806,12 +1496,6 @@
       <c r="B52" t="n">
         <v>11</v>
       </c>
-      <c r="C52" t="n">
-        <v>1.139756342911898</v>
-      </c>
-      <c r="D52" t="n">
-        <v>20.07180501637379</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1820,12 +1504,6 @@
       <c r="B53" t="n">
         <v>11</v>
       </c>
-      <c r="C53" t="n">
-        <v>1.243882745876185</v>
-      </c>
-      <c r="D53" t="n">
-        <v>19.28125058482449</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1834,12 +1512,6 @@
       <c r="B54" t="n">
         <v>11</v>
       </c>
-      <c r="C54" t="n">
-        <v>2.285954976470862</v>
-      </c>
-      <c r="D54" t="n">
-        <v>19.63985904607358</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1848,12 +1520,6 @@
       <c r="B55" t="n">
         <v>11</v>
       </c>
-      <c r="C55" t="n">
-        <v>1.055678095837736</v>
-      </c>
-      <c r="D55" t="n">
-        <v>20.01421859756109</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1862,12 +1528,6 @@
       <c r="B56" t="n">
         <v>11</v>
       </c>
-      <c r="C56" t="n">
-        <v>1.510440140195995</v>
-      </c>
-      <c r="D56" t="n">
-        <v>20.04393115086272</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1876,12 +1536,6 @@
       <c r="B57" t="n">
         <v>11</v>
       </c>
-      <c r="C57" t="n">
-        <v>1.938981179841789</v>
-      </c>
-      <c r="D57" t="n">
-        <v>19.89096720404497</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1890,12 +1544,6 @@
       <c r="B58" t="n">
         <v>11</v>
       </c>
-      <c r="C58" t="n">
-        <v>1.527560595674953</v>
-      </c>
-      <c r="D58" t="n">
-        <v>19.10676711527387</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1904,12 +1552,6 @@
       <c r="B59" t="n">
         <v>11</v>
       </c>
-      <c r="C59" t="n">
-        <v>2.063795460349306</v>
-      </c>
-      <c r="D59" t="n">
-        <v>19.64323308413168</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1918,12 +1560,6 @@
       <c r="B60" t="n">
         <v>11</v>
       </c>
-      <c r="C60" t="n">
-        <v>2.217541256671195</v>
-      </c>
-      <c r="D60" t="n">
-        <v>19.75898220530893</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1932,12 +1568,6 @@
       <c r="B61" t="n">
         <v>11</v>
       </c>
-      <c r="C61" t="n">
-        <v>1.871406018627869</v>
-      </c>
-      <c r="D61" t="n">
-        <v>20.32803335230662</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1945,12 +1575,6 @@
       </c>
       <c r="B62" t="n">
         <v>11</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1.415372423206864</v>
-      </c>
-      <c r="D62" t="n">
-        <v>19.56508437592143</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BXMT1Q69_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMT1Q69_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,6 +875,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -886,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,6 +1074,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1069,7 +1093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,7 +1118,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1102,7 +1126,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1110,7 +1134,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1158,7 +1182,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1166,7 +1190,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1174,7 +1198,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1182,7 +1206,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1190,7 +1214,7 @@
         <v>45151.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1222,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1334,7 +1358,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1342,7 +1366,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1350,7 +1374,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1358,7 +1382,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1366,7 +1390,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1374,7 +1398,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1382,7 +1406,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1390,7 +1414,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1398,7 +1422,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1406,7 +1430,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -1414,7 +1438,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1422,7 +1446,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -1430,7 +1454,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -1438,7 +1462,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -1446,7 +1470,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -1454,7 +1478,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -1462,7 +1486,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -1470,7 +1494,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -1478,7 +1502,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -1486,7 +1510,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -1494,7 +1518,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -1502,7 +1526,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -1510,71 +1534,87 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45613.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45620.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45627.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45725.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45739.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
